--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/111.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/111.xlsx
@@ -479,13 +479,13 @@
         <v>-8.175959351451866</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.447798030159996</v>
+        <v>-8.495506381715245</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.193840624118604</v>
+        <v>-2.165862372945836</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.911452385238088</v>
+        <v>-5.870957892548629</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.390557655857503</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.137984959067269</v>
+        <v>-9.191192077816044</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.107523071483104</v>
+        <v>-2.081011158228609</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.831301307241041</v>
+        <v>-5.794236997896115</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.498516219411089</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.710930316026886</v>
+        <v>-9.768497171621954</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.203411097495906</v>
+        <v>-2.176388584430583</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.680556532321408</v>
+        <v>-5.642169900389466</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.487248508642059</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.36224619779707</v>
+        <v>-10.42235296014344</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.103922688201629</v>
+        <v>-2.074491191413429</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.5650562366517</v>
+        <v>-5.53866215412278</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.382626285008595</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.03716750159089</v>
+        <v>-11.10230170822848</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.229818272327667</v>
+        <v>-2.204798881597129</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.104730868736612</v>
+        <v>-5.074749495229058</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.213886691050966</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.54184959153375</v>
+        <v>-11.60177306164033</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.010613845848648</v>
+        <v>-1.980278980164369</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.009562919380104</v>
+        <v>-4.993001156285321</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.016676279879018</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.15803882477959</v>
+        <v>-12.216653064602</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.865420207333906</v>
+        <v>-1.834614018747324</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.591198382072748</v>
+        <v>-4.581208955004511</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.813904871171872</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.76779973733014</v>
+        <v>-12.82772320743672</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.784274114320888</v>
+        <v>-1.752839495197903</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.009677566751801</v>
+        <v>-3.996572171607233</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.624866915166187</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.38889858414162</v>
+        <v>-13.44566680926335</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.700836868310567</v>
+        <v>-1.679588060798446</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.644572517404586</v>
+        <v>-3.628194046549587</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.472445112124061</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.24526611301892</v>
+        <v>-14.30388035284133</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.528934931998704</v>
+        <v>-1.504792725558561</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.137049397745075</v>
+        <v>-3.129390400582666</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.365420814863469</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.89417301106624</v>
+        <v>-14.95327166609379</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.39244767487371</v>
+        <v>-1.369208837329646</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.717506553181964</v>
+        <v>-2.71528086169887</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.296095015181921</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.63312876805894</v>
+        <v>-15.68416256453599</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.229160473831702</v>
+        <v>-1.201967760829437</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.114592915017636</v>
+        <v>-2.110966347130478</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.267410693504762</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.28152506629542</v>
+        <v>-16.33433941595894</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.011095077699913</v>
+        <v>-0.9859578562437988</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.412361067495975</v>
+        <v>-1.408904699545759</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.268435896217714</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.92083530635975</v>
+        <v>-16.96959104214234</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7890234368985554</v>
+        <v>-0.7595657555046716</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.241153023234723</v>
+        <v>-1.234135548911558</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.277275906269977</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.77780508116777</v>
+        <v>-17.81831266616007</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6018820600789229</v>
+        <v>-0.5685490570438884</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7152221257797454</v>
+        <v>-0.7128786035710765</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.275897534946013</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.64355979118259</v>
+        <v>-18.69388660330618</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2928382514999791</v>
+        <v>-0.2652920463209874</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5019746970937112</v>
+        <v>-0.5010975128033156</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.246158211755011</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.39304175966004</v>
+        <v>-19.4404097113414</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1628447765844809</v>
+        <v>-0.1456676752561363</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.09344247922049102</v>
+        <v>-0.09214634123916014</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.165593206213451</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.0664705409299</v>
+        <v>-20.11577615343184</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07218824403018546</v>
+        <v>0.08931297614716316</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04841262206961092</v>
+        <v>0.04799366837867568</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.014954897551256</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.56082280393064</v>
+        <v>-20.59416889926851</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1678537008946779</v>
+        <v>0.1787595891618357</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2967866992799962</v>
+        <v>0.2999812211733773</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.789403577418214</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.20653518008457</v>
+        <v>-21.24282704356183</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4138187943821855</v>
+        <v>0.4209279148252427</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4360626169102781</v>
+        <v>0.4398070155230117</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.483750698134666</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.63045085379682</v>
+        <v>-21.66955756238505</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5269755678432239</v>
+        <v>0.5288739517552742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.613620428049767</v>
+        <v>0.6310724677377879</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.096509070219189</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.00286140812971</v>
+        <v>-22.03773930290007</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6696423919095129</v>
+        <v>0.6719204526039732</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6441124013681471</v>
+        <v>0.6657016087541533</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.644051285038521</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.2990223907124</v>
+        <v>-22.32862408743754</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8551603231767713</v>
+        <v>0.85856432191562</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7896202551510906</v>
+        <v>0.8233198426656935</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.142779823595315</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.44667738216139</v>
+        <v>-22.46529463680232</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8653723193933176</v>
+        <v>0.863919073777886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8950132930269854</v>
+        <v>0.9293282187751494</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.609488028760773</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.66880139217411</v>
+        <v>-22.68447287867566</v>
       </c>
       <c r="F26" t="n">
-        <v>1.029314135577411</v>
+        <v>1.02687896724885</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6872777238373179</v>
+        <v>0.7325901839725318</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.067551912381581</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.54180605460937</v>
+        <v>-22.5559981108898</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9914904726676648</v>
+        <v>0.9862404592281326</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5754694575689773</v>
+        <v>0.61978690268822</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.540430306528513</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.64702889254832</v>
+        <v>-22.66212431772483</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9891731350646793</v>
+        <v>0.9855203825718377</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1396659728764416</v>
+        <v>0.1873219552203245</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.044453912031398</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.38688483508322</v>
+        <v>-22.40755758127031</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9553819014301843</v>
+        <v>0.9556961166983857</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.09672864723376427</v>
+        <v>-0.04761941927444979</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.591009951865163</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.2315315695633</v>
+        <v>-22.25668188332226</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8913998174426691</v>
+        <v>0.8929839860865179</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5616755980519821</v>
+        <v>-0.5133388159603295</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.19403480668739</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.76992315596972</v>
+        <v>-21.7861052422821</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8852202505013743</v>
+        <v>0.8835051588291082</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8521545212013584</v>
+        <v>-0.8086880757668279</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.856193661690169</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.3000796838887</v>
+        <v>-21.31280540225086</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8297743479666644</v>
+        <v>0.833859146453283</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.272705473083283</v>
+        <v>-1.231359980709112</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.573061293223877</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.09188588409957</v>
+        <v>-21.11299067628044</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7351300907238266</v>
+        <v>0.7380365819546898</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.682141059852583</v>
+        <v>-1.641201428866505</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.344143785711591</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.60109472747179</v>
+        <v>-20.61821945958877</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6875395698941524</v>
+        <v>0.6947927056684686</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.06372931847753</v>
+        <v>-2.032857668376741</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.162986611019946</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.21411244007605</v>
+        <v>-20.23275587932267</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6382470496950537</v>
+        <v>0.6504621682463841</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.261488552901803</v>
+        <v>-2.226283350560401</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.019939710745706</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.65856675359309</v>
+        <v>-19.68112479138938</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6545731513386862</v>
+        <v>0.6667620852843331</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.583925787287833</v>
+        <v>-2.552268599016539</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.9081663681134343</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.28741306033299</v>
+        <v>-19.30587320733983</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5746839193984737</v>
+        <v>0.5882344528396601</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.816850947144981</v>
+        <v>-2.785717450987356</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.8247393226378029</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.58566562801647</v>
+        <v>-18.59841753098432</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7479605475087182</v>
+        <v>0.7641295415182499</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.881841138451309</v>
+        <v>-2.854687702357569</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.7667613292514944</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.12670185959693</v>
+        <v>-18.15105354288254</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8405100362968798</v>
+        <v>0.8608161980043969</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.806521120202859</v>
+        <v>-2.771158810227357</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.731709869292068</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.53355507935253</v>
+        <v>-17.55365176421458</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7274580012585752</v>
+        <v>0.7476856091490419</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.861718268983576</v>
+        <v>-2.826421420522283</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.7245378346642127</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.97790465444683</v>
+        <v>-17.00110421508237</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8855868349809426</v>
+        <v>0.9104098411688553</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.019860195008785</v>
+        <v>-2.99342683557134</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.7490274847812277</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.33469290813567</v>
+        <v>-16.35859945312466</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8649402733995406</v>
+        <v>0.8912950790199352</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.163587495605254</v>
+        <v>-3.136132936546154</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.8078877908420993</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.77389720821318</v>
+        <v>-15.79713604575724</v>
       </c>
       <c r="F43" t="n">
-        <v>0.885521373466734</v>
+        <v>0.9110906409166251</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.175292014345757</v>
+        <v>-3.152459038189787</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.9053032435088259</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.18559458002022</v>
+        <v>-15.20349175800485</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9672435278047881</v>
+        <v>0.9994375004925925</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.331483187247549</v>
+        <v>-3.317173300241543</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.045882178298075</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.66933889436527</v>
+        <v>-14.70043311361437</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9311480488701493</v>
+        <v>0.9623339142391408</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.427331936351826</v>
+        <v>-3.417159217043805</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.23019118909548</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.19763631528073</v>
+        <v>-14.23230473320562</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7405241194946178</v>
+        <v>0.7710160928129978</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.456279017934882</v>
+        <v>-3.447978497933228</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.453879582777913</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.42258507935338</v>
+        <v>-13.46107644970806</v>
       </c>
       <c r="F47" t="n">
-        <v>0.792081608085335</v>
+        <v>0.8247207190697582</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.332334186932261</v>
+        <v>-3.322436405983916</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.715750439373608</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.85255930592747</v>
+        <v>-12.89026513811164</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7152166981015613</v>
+        <v>0.7467953325558045</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.351566779806757</v>
+        <v>-3.333852894061902</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.010759353860382</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.44012558180742</v>
+        <v>-12.47703278351824</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6762932817531097</v>
+        <v>0.7098357616336118</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.485383207152039</v>
+        <v>-3.471413720019918</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.328583580037782</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.8906809084487</v>
+        <v>-11.92825581760445</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6262937772005579</v>
+        <v>0.6570868734842975</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.630576845666781</v>
+        <v>-3.622250141059443</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.663166924597609</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.42015663661991</v>
+        <v>-11.45447156236807</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6307058832582195</v>
+        <v>0.6625201791636138</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.805424550118033</v>
+        <v>-3.798786752577278</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.008605503581159</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.95818163854676</v>
+        <v>-10.99493173262349</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5743435195245888</v>
+        <v>0.603775016312789</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.862048759908498</v>
+        <v>-3.850553718013463</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.356296538662465</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.35556912334779</v>
+        <v>-10.38827369584643</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5505024360498056</v>
+        <v>0.5792531330902361</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.0184625019586</v>
+        <v>-4.008590905615938</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.697905737895297</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.924112283198712</v>
+        <v>-9.956764486485975</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5365591335233674</v>
+        <v>0.5690411368736897</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.084748831246259</v>
+        <v>-4.06890714480777</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.030829548702895</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.434564895340889</v>
+        <v>-9.460540024178874</v>
       </c>
       <c r="F55" t="n">
-        <v>0.448395566187184</v>
+        <v>0.4804717081494129</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.2003538653387</v>
+        <v>-4.180086980539707</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.350756206490037</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.10393187937594</v>
+        <v>-9.142109034462413</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4130856254230488</v>
+        <v>0.4496786118656732</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.461466753214085</v>
+        <v>-4.437756592767719</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.648983427912971</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.587623824509631</v>
+        <v>-8.624949979911392</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3828947750700285</v>
+        <v>0.4206791610712499</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.443779052074913</v>
+        <v>-4.416717262101065</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.926978849909434</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.479363572311398</v>
+        <v>-8.527818185128625</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3412874366390231</v>
+        <v>0.3829733288870789</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.512801672656492</v>
+        <v>-4.484653221546782</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.183632132654911</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.930049821981097</v>
+        <v>-7.969261268992066</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3435393127278</v>
+        <v>0.3787837919777265</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.749850907908784</v>
+        <v>-4.724019794402059</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.413181124110658</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.83966056316182</v>
+        <v>-7.881935609037754</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4558581788069679</v>
+        <v>0.4986176398880452</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.809577993472739</v>
+        <v>-4.785396510124071</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.615058230750241</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.509826177670215</v>
+        <v>-7.549024532378343</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4086997039710706</v>
+        <v>0.4501499347679753</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.922486013179785</v>
+        <v>-4.896851284215685</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.788972142163533</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.226626574900838</v>
+        <v>-7.266806852322096</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3805512528613595</v>
+        <v>0.4226299141946671</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.113869296120136</v>
+        <v>-5.088195290247511</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.930665686946824</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.047065641426566</v>
+        <v>-7.088201656955269</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3466029115927639</v>
+        <v>0.390278833872762</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.064026899201685</v>
+        <v>-5.041717615159384</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.03594586091415</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.832351874822258</v>
+        <v>-6.876407473884666</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1444577557165134</v>
+        <v>0.188159862602195</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.056446455856325</v>
+        <v>-5.040067985001326</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.106848176892448</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.774208957902153</v>
+        <v>-6.818290741570245</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05687024970536596</v>
+        <v>0.09864778807331384</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.113633634668985</v>
+        <v>-5.094322487977439</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.141806885281305</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.505188319110365</v>
+        <v>-6.54087793665691</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09972135690633538</v>
+        <v>0.143279448460758</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.081164723621504</v>
+        <v>-5.062220161409527</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.135088348363502</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.388876300664471</v>
+        <v>-6.428454332155009</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.03287748627466624</v>
+        <v>0.01509271133741808</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.035079817618628</v>
+        <v>-5.023205098941183</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.091805160143741</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.172120134816854</v>
+        <v>-6.2135834579166</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.06699602748020438</v>
+        <v>-0.01861996848002655</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.019866561716543</v>
+        <v>-5.01119945723532</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.012962493478001</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.194534157281889</v>
+        <v>-6.235486880570808</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.1456545829532946</v>
+        <v>-0.09984461531009507</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.911959801695037</v>
+        <v>-4.900032713806224</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.896190589510338</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.333770798003646</v>
+        <v>-6.37354521403681</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.1815667696481492</v>
+        <v>-0.1326146493229354</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.844665365088565</v>
+        <v>-4.835500753099357</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.746412868065077</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.353579452203178</v>
+        <v>-6.39296109915109</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.1794589088906313</v>
+        <v>-0.1322480648433671</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.787163971007704</v>
+        <v>-4.782228172836373</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.567743711281809</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.462232473486663</v>
+        <v>-6.506981964599682</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2860564386279649</v>
+        <v>-0.2418175473257726</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.661255294578824</v>
+        <v>-4.657327603726307</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.360027157831843</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.557099299877809</v>
+        <v>-6.596716608276872</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2854280080915621</v>
+        <v>-0.2389241483977511</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.416128108473187</v>
+        <v>-4.410302033708619</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.124542657973901</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.851113144794452</v>
+        <v>-6.892196791111788</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.2927858822886121</v>
+        <v>-0.2486517294091536</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.121158525449099</v>
+        <v>-4.117990188161401</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.86665585385489</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.084522719856744</v>
+        <v>-7.121717952230088</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4272569247759806</v>
+        <v>-0.3848640481744716</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.860006360665189</v>
+        <v>-3.854651608802923</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.586628912769369</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.359447987230149</v>
+        <v>-7.393631989949896</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5273868569095016</v>
+        <v>-0.4880837637786399</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.503188739016787</v>
+        <v>-3.497153187406751</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.281851672268743</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.865360753640128</v>
+        <v>-7.895119557999371</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.4055498866643988</v>
+        <v>-0.3663253473505875</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.378484554449346</v>
+        <v>-3.370576803532943</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.958204169969592</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.26396900595932</v>
+        <v>-8.296686670760794</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.495677299426841</v>
+        <v>-0.4589795745614829</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.391917257164957</v>
+        <v>-3.388369243094849</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.615491601576362</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.734205247125596</v>
+        <v>-8.765181635649119</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5373370070692134</v>
+        <v>-0.5020270663050782</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.120081773262198</v>
+        <v>-3.110170900011012</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.25148271303322</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.308080157586975</v>
+        <v>-9.336254793302368</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.6043957822245343</v>
+        <v>-0.5679860880216941</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.748666233945272</v>
+        <v>-2.737236653564445</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.870580271424211</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.880410176313029</v>
+        <v>-9.902667091143963</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6189282383788502</v>
+        <v>-0.591460587016909</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.586832278518695</v>
+        <v>-2.580129019463732</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.475044265589415</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.77787444381051</v>
+        <v>-10.80233086551885</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6141495478416202</v>
+        <v>-0.5803452219042835</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.195961577178964</v>
+        <v>-2.185382996482849</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.065012634062942</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.58557788302512</v>
+        <v>-11.59961283167145</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6812345076026246</v>
+        <v>-0.6523136106252517</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.963468463315592</v>
+        <v>-1.949616806909046</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.644822712334273</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.53445562378205</v>
+        <v>-12.54627797324813</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.582570913387377</v>
+        <v>-0.5507173405734574</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.734575732733695</v>
+        <v>-1.725227828504703</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.220285311974089</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.70421360578175</v>
+        <v>-13.70979092679233</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6774508320813658</v>
+        <v>-0.6442094751662233</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.581539804816759</v>
+        <v>-1.576368345194278</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.7950667257889558</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.82380188329196</v>
+        <v>-14.83277011073854</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.7349522261622267</v>
+        <v>-0.7056516524024437</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.320256717004432</v>
+        <v>-1.305999199209793</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3735473581433189</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.95245003436864</v>
+        <v>-15.95728109411723</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7602727398581248</v>
+        <v>-0.7313125659722268</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.242776468787097</v>
+        <v>-1.229841273579472</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.03482999179512317</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.29310184536139</v>
+        <v>-17.29187116889426</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9432900412826136</v>
+        <v>-0.9172756355361039</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.080785405726421</v>
+        <v>-1.068203702695522</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.4246099925694516</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.78600404610057</v>
+        <v>-18.77461374262827</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9576130205914619</v>
+        <v>-0.9343349061388729</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.121842867438074</v>
+        <v>-1.111774886552786</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.7900383551799233</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.34612212962917</v>
+        <v>-20.33173368880611</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.035669330133833</v>
+        <v>-1.019526520729984</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.045907510956062</v>
+        <v>-1.033496007862106</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.121686545460863</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99185078143982</v>
+        <v>-21.97913815538051</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.14927124189149</v>
+        <v>-1.135066093308217</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.058790336952321</v>
+        <v>-1.037908113919768</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.412571076106488</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64529079962425</v>
+        <v>-23.63141295861202</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.285941791256268</v>
+        <v>-1.276502240907384</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.248445435917565</v>
+        <v>-1.229212843043069</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.657175009985672</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70291639113844</v>
+        <v>-25.68952296533136</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.298628232709901</v>
+        <v>-1.284698022486304</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.486921732179605</v>
+        <v>-1.464612448137304</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.849165652417786</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.6963635141225</v>
+        <v>-27.68812845563505</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.300618262741843</v>
+        <v>-1.284475453337995</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.467702231607951</v>
+        <v>-1.437485196649247</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.985557534238771</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.01050659521463</v>
+        <v>-30.00804524228039</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.612306716494816</v>
+        <v>-1.599031121413306</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.714767078534164</v>
+        <v>-1.685113012597654</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.063456821684039</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.14058499065494</v>
+        <v>-32.13911865273666</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.62166771302665</v>
+        <v>-1.597970644883126</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.995911189757389</v>
+        <v>-1.955914204575916</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.086383692448417</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.51944332469372</v>
+        <v>-34.51750566387314</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.759974800246644</v>
+        <v>-1.745730374754846</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.156016961208858</v>
+        <v>-2.116033068330226</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.049461126022381</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.59817370838878</v>
+        <v>-36.5842173135595</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.978197304012534</v>
+        <v>-1.959841895428434</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.389793120750718</v>
+        <v>-2.34179673853295</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.967415337475031</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.89630490310548</v>
+        <v>-38.8902562591926</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.03505717525415</v>
+        <v>-2.026835209069546</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.652712746418261</v>
+        <v>-2.611524361678191</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.829865573363086</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.23129093032164</v>
+        <v>-41.23110763808185</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.438326287384997</v>
+        <v>-2.433128643156831</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.830205096043541</v>
+        <v>-2.787890773259083</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.667715139167528</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.57808621470104</v>
+        <v>-43.57595216933784</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.613789330069809</v>
+        <v>-2.611341069438407</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.015840858036375</v>
+        <v>-2.979745379101737</v>
       </c>
     </row>
     <row r="102">
@@ -2782,10 +2782,10 @@
         <v>-45.91669880980436</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.937404871711594</v>
+        <v>-2.942890546602278</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.371977679937008</v>
+        <v>-3.342925859931218</v>
       </c>
     </row>
   </sheetData>
